--- a/Goal_Rivals_(Videojuego)_-_Product_Backlog.xlsx
+++ b/Goal_Rivals_(Videojuego)_-_Product_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{155B93D9-A40D-429D-8AFD-C5D4B88FE712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17B527-3F6D-48E2-B850-260A5C041C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="225" windowWidth="16350" windowHeight="9300" activeTab="1" xr2:uid="{EC2672B6-AC1B-4333-BBAB-2F07098D012C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{EC2672B6-AC1B-4333-BBAB-2F07098D012C}"/>
   </bookViews>
   <sheets>
     <sheet name="Información Sprints" sheetId="3" r:id="rId1"/>
@@ -27,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -248,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
   <si>
     <t>Identificador</t>
   </si>
@@ -398,6 +395,66 @@
   </si>
   <si>
     <t>Alta</t>
+  </si>
+  <si>
+    <t>Desarrollar la pantalla principal con sus funciones básicas (Jugar, Opciones, Salir).</t>
+  </si>
+  <si>
+    <t>Implementar la pantalla de Selección de Nivel (mostrar los niveles disponibles para jugar).</t>
+  </si>
+  <si>
+    <t>Diseñar y crear los sprites para los fondos de cada nivel (arte visual temático por nivel/ODS).</t>
+  </si>
+  <si>
+    <t>Req 10</t>
+  </si>
+  <si>
+    <t>Req 11</t>
+  </si>
+  <si>
+    <t>Req 12</t>
+  </si>
+  <si>
+    <t>Req 13</t>
+  </si>
+  <si>
+    <t>Req 14</t>
+  </si>
+  <si>
+    <t>Req 15</t>
+  </si>
+  <si>
+    <t>Req 16</t>
+  </si>
+  <si>
+    <t>Req 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Req 19 </t>
+  </si>
+  <si>
+    <t>Req 20</t>
+  </si>
+  <si>
+    <t>Req 18</t>
+  </si>
+  <si>
+    <t>Desarrollar la estructura de la ventana/pop-up de preguntas educativas (sin integrar la lógica aún).</t>
+  </si>
+  <si>
+    <t>Implementar la navegación entre pantallas (Menú Principal -&gt; Selección de Nivel -&gt; Juego).</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>En Progreso</t>
+  </si>
+  <si>
+    <t>Crear los sprites/arte de los elementos educativos para las preguntas.</t>
+  </si>
+  <si>
+    <t>Diseño de sprites para el menu de pausa e implementacion durante un nivel.</t>
   </si>
 </sst>
 </file>
@@ -1046,17 +1103,17 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1088,15 +1145,15 @@
       </c>
       <c r="D2" s="5">
         <f>COUNTIF(Backlog!$E$12:$E$54,'Información Sprints'!A2)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5">
         <f>SUMIF(Backlog!$E$12:$E$54,'Información Sprints'!A2,Backlog!$D$12:$D$54)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5">
         <f>IF(COUNTA(Backlog!$C$2:$C$7)=0,0,E2/COUNTA(Backlog!$C$2:$C$7))</f>
-        <v>1.5</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1113,15 +1170,15 @@
       </c>
       <c r="D3" s="5">
         <f>COUNTIF(Backlog!$E$12:$E$54,'Información Sprints'!A3)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <f>SUMIF(Backlog!$E$12:$E$54,'Información Sprints'!A3,Backlog!$D$12:$D$54)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5">
         <f>IF(COUNTA(Backlog!$C$2:$C$7)=0,0,E3/COUNTA(Backlog!$C$2:$C$7))</f>
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1149,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="25" t="s">
         <v>15</v>
       </c>
@@ -1199,22 +1256,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17BD224-0269-4C39-86AB-7245540C981E}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="3"/>
       <c r="B1" s="6" t="s">
         <v>22</v>
@@ -1226,7 +1283,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -1271,14 +1328,14 @@
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="21">
         <f>IF(SUM(D12:D54)=0,0,SUMIF(C12:C54,"Terminado",D12:D54)/SUM(D12:D54))</f>
-        <v>1</v>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30">
@@ -1307,7 +1364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="28.5">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1388,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="28.5">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1348,14 +1405,14 @@
         <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="28.5">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1436,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="45">
+    <row r="15" spans="1:8" ht="42.75">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1403,7 +1460,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="45">
+    <row r="16" spans="1:8" ht="28.5">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>49</v>
@@ -1427,7 +1484,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="45">
+    <row r="17" spans="1:8" ht="42.75">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1441,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>49</v>
@@ -1451,7 +1508,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="45">
+    <row r="18" spans="1:8" ht="42.75">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -1465,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>49</v>
@@ -1475,7 +1532,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="60">
+    <row r="19" spans="1:8" ht="42.75">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
@@ -1499,80 +1556,178 @@
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="42.75">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="B20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+    <row r="21" spans="1:8" ht="42.75">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+    <row r="22" spans="1:8" ht="42.75">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+    <row r="23" spans="1:8" ht="42.75">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+    <row r="24" spans="1:8" ht="42.75">
+      <c r="A24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+    <row r="25" spans="1:8" ht="42.75">
+      <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="1:8" ht="42.75">
+      <c r="A26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1582,7 +1737,9 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1592,7 +1749,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1602,7 +1761,9 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1612,7 +1773,9 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
